--- a/published-data/fonds-solidarite/fds-2020-07-09/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-07-09/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,12 +489,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>823238.09</t>
+          <t>829537.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,12 +573,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>787</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2195518.22</t>
+          <t>2207018.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +657,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>498</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1289475.69</t>
+          <t>1291475.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -715,12 +783,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>192455.66</t>
+          <t>227455.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +825,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>624181.77</t>
+          <t>676181.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,12 +867,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>215245.00</t>
+          <t>238245.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1135,12 +1203,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>300000.00</t>
+          <t>306000.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1177,12 +1245,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>789752.33</t>
+          <t>791752.33</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1219,12 +1287,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>348900.26</t>
+          <t>350900.26</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1303,12 +1371,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10700.00</t>
+          <t>12700.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1471,12 +1539,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>389800.00</t>
+          <t>395800.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1639,12 +1707,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>737100.74</t>
+          <t>741100.74</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3067,12 +3135,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>740</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2134729.03</t>
+          <t>2136729.03</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3109,12 +3177,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>429</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1166972.79</t>
+          <t>1172472.79</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3487,12 +3555,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>317500.00</t>
+          <t>331000.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3571,12 +3639,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>402</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1079896.01</t>
+          <t>1099396.01</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3613,12 +3681,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>363677.09</t>
+          <t>367677.09</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
